--- a/source/test_data/employees.xlsx
+++ b/source/test_data/employees.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-06-20</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-07-03</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-17</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-05-19</t>
         </is>
       </c>
     </row>
